--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandafowler/Desktop/Rolodex/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9869DD3A-8754-4FC6-9AAA-1173B2FE86CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BE7652-6E42-5F4C-9285-332BAB8F06CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="14180" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="605">
   <si>
     <t>Name</t>
   </si>
@@ -1828,6 +1828,99 @@
   </si>
   <si>
     <t>ISSS@albany.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TimelyCare is a telehealth platform that gives undergraduate and graduate students access to care anytime, anywhere—on phone, tablet, or computer. This supplements UAlbany’s already comprehensive health and wellness services.  
+Learn more about TimelyCare at UAlbany. 
+Services include: 
+TalkNow: Immediate, on-demand mental health support (including students abroad) 
+Scheduled Counseling: Up to 12 virtual therapy sessions per year 
+Medical Visits: On-demand and scheduled care for common illnesses 
+Health Coaching: Support for nutrition, sleep, and stress management 
+Peer Community &amp; Self-Care Tools: 24/7 wellness resources 
+Students register at TimelyCare.com/albany using their @albany.edu email. </t>
+  </si>
+  <si>
+    <t>https://www.albany.edu/health-well-being/timelycare#access</t>
+  </si>
+  <si>
+    <t>TimelyCare</t>
+  </si>
+  <si>
+    <t>https://www.211neny.org/</t>
+  </si>
+  <si>
+    <t>Locating basic resources such as food, shelter, employment, or health care may mean calling dozens of phone numbers, then struggling through a maze of agencies and services to make the right connections. The 211 system helps residents find resources by dialling a simple three-digit number.</t>
+  </si>
+  <si>
+    <t>PhysMHFHF</t>
+  </si>
+  <si>
+    <t>211 Northeast Region</t>
+  </si>
+  <si>
+    <t>Peer-Assisted Student Success (PASS) mentoring</t>
+  </si>
+  <si>
+    <t>https://www.albany.edu/undergraduate-education/students/coaching-mentoring</t>
+  </si>
+  <si>
+    <t>tel:2-1-1 or 888-366-3211</t>
+  </si>
+  <si>
+    <t>tel: 518-442-3943</t>
+  </si>
+  <si>
+    <t>PASSMentor@albany.edu</t>
+  </si>
+  <si>
+    <t>the third floor of the Taconic Building</t>
+  </si>
+  <si>
+    <t>CDPHP Cycle</t>
+  </si>
+  <si>
+    <t>https://www.cdphpcycle.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PASS Mentoring Program matches first- and second-year students with peer mentors who can help with managing academics, adjusting to campus life, getting involved and more. 
+Mentors are juniors and seniors who have experience navigating life as a Great Dane and want to help their peers explore all that UAlbany has to offer. 
+</t>
+  </si>
+  <si>
+    <t>Current students and employees have free access to the regular CDPHP Cycle! bikes, which are typically available from April to November. 
+To register for the bike-share program, visit the CDPHP Cycle! website, and register using your albany.edu email address. Once your email address is verified then use code, SunyCycle, to access special membership.
+Additionally, members of the campus community are eligible for 30 free minutes of e-bike riding every day. After those 30 minutes, it is $0.15 per minute for e-bike riding.  
+There are four bike-share hubs on UAlbany’s campuses:
+Uptown Campus
+    Collins Circle
+    Campus Center
+    Empire Commons
+Downtown Campus
+    Intersection of Western Avenue and North Lake Avenue</t>
+  </si>
+  <si>
+    <t>Academic Success Coaching</t>
+  </si>
+  <si>
+    <t>Academic Success Coaches work with students one-on-one to provide support, and success strategies for their courses. Success Coaches collaborate with academic departments to ensure students are equipped with the skills and resources they need to reach their goals. </t>
+  </si>
+  <si>
+    <t>Phys</t>
+  </si>
+  <si>
+    <t>https://apps.deadiversion.usdoj.gov/pubdispsearch/spring/main;jsessionid=z44tQ01RJPScUDEHHJtxXD-fhdyRmY0JCeenTxrT.web1?execution=e1s1</t>
+  </si>
+  <si>
+    <t>Safe Medical Disposal Locations</t>
+  </si>
+  <si>
+    <t>Drug misuse remains a serious concern on college campuses, since unused medications can be easily misused or stolen. By safely disposing of unneeded prescriptions, you help reduce the risk of addiction, overdose, and accidental poisoning in your community. 
+The Drug Enforcement Administration’s Take Back initiative provides nearly 17,000 secure, anonymous drop-off sites nationwide—including pharmacies, hospitals, and police departments—that are open year-round.
+Take part in preventing drug misuse on your campus by cleaning out your medicine cabinet and encouraging others to do the same. Together, small actions create safer, healthier college communities.</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -2406,7 +2499,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2438,6 +2531,9 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2794,21 +2890,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G169" sqref="G169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="88.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="96.36328125" style="2" customWidth="1"/>
-    <col min="5" max="8" width="25.08984375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="78.08984375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="88.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="96.33203125" style="2" customWidth="1"/>
+    <col min="5" max="8" width="25.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="78.1640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -6656,6 +6752,196 @@
       </c>
       <c r="I156" s="1" t="s">
         <v>520</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B157" s="21"/>
+      <c r="D157" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B158" s="21"/>
+      <c r="C158" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I158" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="B159" t="s">
+        <v>593</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="F159" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I161" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B163" s="21"/>
+      <c r="D163" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B164" s="21"/>
+      <c r="D164" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B165" s="21"/>
+      <c r="D165" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="F167" s="2" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -6776,8 +7062,11 @@
     <hyperlink ref="D156" r:id="rId111" xr:uid="{1E66DBCC-AB5E-4E32-804B-D7193FA752EE}"/>
     <hyperlink ref="F118" r:id="rId112" xr:uid="{7369515B-3200-4C5D-8DBA-683E7EA7089D}"/>
     <hyperlink ref="F155" r:id="rId113" xr:uid="{F7A76B19-1F37-4DF5-BD65-E0CE94052793}"/>
+    <hyperlink ref="C159" r:id="rId114" display="tel:518-442-3943" xr:uid="{FF797009-0F9E-2A4A-A3A7-106BF4E6C3BA}"/>
+    <hyperlink ref="C158" r:id="rId115" xr:uid="{39AC894D-928D-1945-B205-EC44DA75AA2F}"/>
+    <hyperlink ref="F159" r:id="rId116" display="mailto:passmentor@albany.edu" xr:uid="{92FF97A4-6BFD-2047-AFAC-29DC3A1B4E54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId114"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId117"/>
 </worksheet>
 </file>
--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandafowler/Desktop/Rolodex/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandafowler/Desktop/rolodex/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BE7652-6E42-5F4C-9285-332BAB8F06CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AEA36C-4D35-F94A-84C7-FA76023052CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="14180" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -2892,7 +2892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G169" sqref="G169"/>
     </sheetView>
   </sheetViews>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandafowler/Desktop/rolodex/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AEA36C-4D35-F94A-84C7-FA76023052CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476F1130-7B02-5849-82AA-E058DE897EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="605">
   <si>
     <t>Name</t>
   </si>
@@ -1853,9 +1853,6 @@
     <t>Locating basic resources such as food, shelter, employment, or health care may mean calling dozens of phone numbers, then struggling through a maze of agencies and services to make the right connections. The 211 system helps residents find resources by dialling a simple three-digit number.</t>
   </si>
   <si>
-    <t>PhysMHFHF</t>
-  </si>
-  <si>
     <t>211 Northeast Region</t>
   </si>
   <si>
@@ -1906,9 +1903,6 @@
     <t>Academic Success Coaches work with students one-on-one to provide support, and success strategies for their courses. Success Coaches collaborate with academic departments to ensure students are equipped with the skills and resources they need to reach their goals. </t>
   </si>
   <si>
-    <t>Phys</t>
-  </si>
-  <si>
     <t>https://apps.deadiversion.usdoj.gov/pubdispsearch/spring/main;jsessionid=z44tQ01RJPScUDEHHJtxXD-fhdyRmY0JCeenTxrT.web1?execution=e1s1</t>
   </si>
   <si>
@@ -1920,7 +1914,13 @@
 Take part in preventing drug misuse on your campus by cleaning out your medicine cabinet and encouraging others to do the same. Together, small actions create safer, healthier college communities.</t>
   </si>
   <si>
-    <t>`</t>
+    <t>info@cdphpcycle.org</t>
+  </si>
+  <si>
+    <t>(518) 245-3255</t>
+  </si>
+  <si>
+    <t>tel:888-366-3211</t>
   </si>
 </sst>
 </file>
@@ -2890,10 +2890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G169" sqref="G169"/>
+    <sheetView tabSelected="1" topLeftCell="D142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
@@ -6777,11 +6777,11 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B158" s="21"/>
       <c r="C158" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>584</v>
@@ -6790,7 +6790,7 @@
         <v>358</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>586</v>
+        <v>114</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>10</v>
@@ -6801,19 +6801,19 @@
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="B159" t="s">
+        <v>592</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B159" t="s">
-        <v>593</v>
-      </c>
-      <c r="C159" s="20" t="s">
+      <c r="F159" s="20" t="s">
         <v>591</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F159" s="20" t="s">
-        <v>592</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>32</v>
@@ -6822,32 +6822,38 @@
         <v>26</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="C160" t="s">
+        <v>603</v>
+      </c>
+      <c r="D160" s="20" t="s">
         <v>594</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>595</v>
+      <c r="F160" s="20" t="s">
+        <v>602</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>600</v>
+        <v>114</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>32</v>
@@ -6856,15 +6862,15 @@
         <v>26</v>
       </c>
       <c r="I161" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
+      </c>
+      <c r="D162" s="20" t="s">
+        <v>599</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>51</v>
@@ -6873,7 +6879,7 @@
         <v>10</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -6923,6 +6929,7 @@
         <v>583</v>
       </c>
       <c r="B165" s="21"/>
+      <c r="C165" s="20"/>
       <c r="D165" s="20" t="s">
         <v>582</v>
       </c>
@@ -6939,9 +6946,100 @@
         <v>581</v>
       </c>
     </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B166" s="21"/>
+      <c r="C166" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="D166" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I166" t="s">
+        <v>585</v>
+      </c>
+    </row>
     <row r="167" spans="1:9">
-      <c r="F167" s="2" t="s">
+      <c r="A167" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B167" s="21"/>
+      <c r="C167" s="20" t="s">
         <v>604</v>
+      </c>
+      <c r="D167" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I167" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B168" s="21"/>
+      <c r="C168" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="D168" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I168" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B169" s="21"/>
+      <c r="C169" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="D169" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I169" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -7065,8 +7163,19 @@
     <hyperlink ref="C159" r:id="rId114" display="tel:518-442-3943" xr:uid="{FF797009-0F9E-2A4A-A3A7-106BF4E6C3BA}"/>
     <hyperlink ref="C158" r:id="rId115" xr:uid="{39AC894D-928D-1945-B205-EC44DA75AA2F}"/>
     <hyperlink ref="F159" r:id="rId116" display="mailto:passmentor@albany.edu" xr:uid="{92FF97A4-6BFD-2047-AFAC-29DC3A1B4E54}"/>
+    <hyperlink ref="D162" r:id="rId117" xr:uid="{3DE194FC-17EE-A649-8859-317715F43009}"/>
+    <hyperlink ref="F160" r:id="rId118" display="mailto:info@cdphpcycle.org" xr:uid="{C1021047-F2A6-0D44-921E-65780A9C7407}"/>
+    <hyperlink ref="D160" r:id="rId119" xr:uid="{0F5D7C84-6C50-814B-95E8-D5E467CA24AF}"/>
+    <hyperlink ref="C166" r:id="rId120" xr:uid="{690FD66A-CACE-F148-B4D1-FC887F23F5EC}"/>
+    <hyperlink ref="C167" r:id="rId121" xr:uid="{DA09BFEF-E59D-A74C-9D84-99944ED51719}"/>
+    <hyperlink ref="C168" r:id="rId122" xr:uid="{EF917863-B783-6746-BA4E-0B21880445D2}"/>
+    <hyperlink ref="C169" r:id="rId123" xr:uid="{D678F8DB-2E76-8645-8492-668ADDB70C30}"/>
+    <hyperlink ref="D169" r:id="rId124" xr:uid="{5539CF43-9824-C040-831E-11780C081C68}"/>
+    <hyperlink ref="D168" r:id="rId125" xr:uid="{9FF172EE-8CFA-AB47-93A1-C78BEC3D269B}"/>
+    <hyperlink ref="D167" r:id="rId126" xr:uid="{19A9ABBB-6357-F847-AEED-C41F8DD723D5}"/>
+    <hyperlink ref="D166" r:id="rId127" xr:uid="{572C4F40-4005-884C-965A-3699D5D51DD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId117"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId128"/>
 </worksheet>
 </file>
--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandafowler/Desktop/rolodex/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EO276194\Desktop\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476F1130-7B02-5849-82AA-E058DE897EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF0C386-5CB8-449D-85F6-7F99A661BC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -56,15 +56,9 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Loc</t>
-  </si>
-  <si>
     <t>Pride Center of the Capital Region</t>
   </si>
   <si>
-    <t>SLGBT</t>
-  </si>
-  <si>
     <t>Off</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>daisstesting@albany.edu and daiss@albany.edu</t>
   </si>
   <si>
-    <t>Aca</t>
-  </si>
-  <si>
     <t>Writing Center</t>
   </si>
   <si>
@@ -188,9 +179,6 @@
     <t>https://neverusealone.com/</t>
   </si>
   <si>
-    <t>AOD</t>
-  </si>
-  <si>
     <t>Collegiate Recovery Program</t>
   </si>
   <si>
@@ -209,18 +197,12 @@
     <t>eop@albany.edu</t>
   </si>
   <si>
-    <t>EOP</t>
-  </si>
-  <si>
     <t>Purple Pantry</t>
   </si>
   <si>
     <t>https://www.albany.edu/dean-students/purple-pantry</t>
   </si>
   <si>
-    <t>FHF</t>
-  </si>
-  <si>
     <t>Purple Threads</t>
   </si>
   <si>
@@ -245,9 +227,6 @@
     <t>M-F 9am-3:30pm</t>
   </si>
   <si>
-    <t>HIVSTI</t>
-  </si>
-  <si>
     <t>M-F Walk-in Testing Appts 8am-4:30pm</t>
   </si>
   <si>
@@ -269,9 +248,6 @@
     <t>New York State Support Line</t>
   </si>
   <si>
-    <t>Hotline</t>
-  </si>
-  <si>
     <t>New York State Gambler's Hotline</t>
   </si>
   <si>
@@ -290,9 +266,6 @@
     <t>Equinox</t>
   </si>
   <si>
-    <t>MH</t>
-  </si>
-  <si>
     <t>https://afsp.org/chapter/capital-region-new-york#programs </t>
   </si>
   <si>
@@ -320,9 +293,6 @@
     <t>AAKOMA Project</t>
   </si>
   <si>
-    <t>MHBC</t>
-  </si>
-  <si>
     <t>Black Emotional and Mental Health Collective (BEAM)</t>
   </si>
   <si>
@@ -347,9 +317,6 @@
     <t>Therapy for Black Men</t>
   </si>
   <si>
-    <t>MHLC</t>
-  </si>
-  <si>
     <t>Life is Precious</t>
   </si>
   <si>
@@ -377,9 +344,6 @@
     <t>Capital District Latinos</t>
   </si>
   <si>
-    <t>PhysMH</t>
-  </si>
-  <si>
     <t>Ellis Medicine Medicaid/Health Insurance Programs</t>
   </si>
   <si>
@@ -411,9 +375,6 @@
   </si>
   <si>
     <t>cvsvc@albanycounty.com</t>
-  </si>
-  <si>
-    <t>SV</t>
   </si>
   <si>
     <t>https://www.albanycounty.com/departments/crime-victim-and-sexual-violence-center</t>
@@ -1075,9 +1036,6 @@
   </si>
   <si>
     <t>27/4</t>
-  </si>
-  <si>
-    <t>GAMB</t>
   </si>
   <si>
     <t>Complete a free anonymous Problem Gambling Screener and get personalized feedback and resources</t>
@@ -1308,9 +1266,6 @@
     <t>Leadership@equinoxinc.org</t>
   </si>
   <si>
-    <t>IPV</t>
-  </si>
-  <si>
     <t>24/7 Domestic violence hotline (518)-432-7865 - Crisis intervention - Counseling - Referral - Shelter -  Online Chat</t>
   </si>
   <si>
@@ -1807,9 +1762,6 @@
   </si>
   <si>
     <t>tel:5184425565</t>
-  </si>
-  <si>
-    <t>INTNL</t>
   </si>
   <si>
     <t>354 Central Avenue, Albany, NY 12208</t>
@@ -1921,6 +1873,54 @@
   </si>
   <si>
     <t>tel:888-366-3211</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Academic Resources</t>
+  </si>
+  <si>
+    <t>Educational Opportunity Program</t>
+  </si>
+  <si>
+    <t>Alcohol and Other Drug Resources</t>
+  </si>
+  <si>
+    <t>Food, Housing, and Financial</t>
+  </si>
+  <si>
+    <t>Gambling</t>
+  </si>
+  <si>
+    <t>Sexual Health</t>
+  </si>
+  <si>
+    <t>Physical Health</t>
+  </si>
+  <si>
+    <t>LGBTQ+ Resources</t>
+  </si>
+  <si>
+    <t>Sexual Violence</t>
+  </si>
+  <si>
+    <t>Interpartner Violence</t>
+  </si>
+  <si>
+    <t>International Student Resources</t>
+  </si>
+  <si>
+    <t>Mental Health</t>
+  </si>
+  <si>
+    <t>Mental Health for Black Communities</t>
+  </si>
+  <si>
+    <t>Mental Health for Latine Communities</t>
+  </si>
+  <si>
+    <t>Hotlines</t>
   </si>
 </sst>
 </file>
@@ -2892,19 +2892,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G171" sqref="G171"/>
+    <sheetView tabSelected="1" topLeftCell="E127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="88.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="96.33203125" style="2" customWidth="1"/>
-    <col min="5" max="8" width="25.1640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="78.1640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="88.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="96.28515625" style="2" customWidth="1"/>
+    <col min="5" max="8" width="25.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="78.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2930,4116 +2930,4116 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>589</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>590</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>590</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>590</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>590</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>590</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
+        <v>590</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>590</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>32</v>
+        <v>590</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>51</v>
+        <v>592</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>51</v>
+        <v>592</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>51</v>
+        <v>592</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>51</v>
+        <v>592</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>51</v>
+        <v>592</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>51</v>
+        <v>592</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>51</v>
+        <v>592</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>51</v>
+        <v>592</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>58</v>
+        <v>591</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>58</v>
+        <v>591</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>58</v>
+        <v>591</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>58</v>
+        <v>591</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>61</v>
+        <v>593</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>61</v>
+        <v>593</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>61</v>
+        <v>593</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>61</v>
+        <v>593</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>345</v>
+        <v>594</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="5" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>345</v>
+        <v>594</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>345</v>
+        <v>594</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>345</v>
+        <v>594</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>345</v>
+        <v>594</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G32" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>70</v>
+        <v>595</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>70</v>
+        <v>595</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>70</v>
+        <v>595</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>70</v>
+        <v>595</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>70</v>
+        <v>595</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>70</v>
+        <v>595</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>70</v>
+        <v>595</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>78</v>
+        <v>604</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="5" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>78</v>
+        <v>604</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>78</v>
+        <v>604</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>78</v>
+        <v>604</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>78</v>
+        <v>604</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>78</v>
+        <v>604</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>85</v>
+        <v>601</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>85</v>
+        <v>601</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>85</v>
+        <v>601</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>85</v>
+        <v>601</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>85</v>
+        <v>601</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>85</v>
+        <v>601</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>95</v>
+        <v>602</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>95</v>
+        <v>602</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="3" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>95</v>
+        <v>602</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>95</v>
+        <v>602</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>95</v>
+        <v>602</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>95</v>
+        <v>602</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>95</v>
+        <v>602</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>95</v>
+        <v>602</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>95</v>
+        <v>602</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>95</v>
+        <v>602</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>95</v>
+        <v>602</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>104</v>
+        <v>603</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>104</v>
+        <v>603</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>104</v>
+        <v>603</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>104</v>
+        <v>603</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>104</v>
+        <v>603</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>104</v>
+        <v>603</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
-        <v>104</v>
+        <v>603</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
-        <v>104</v>
+        <v>603</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>104</v>
+        <v>603</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G74" s="1" t="s">
-        <v>114</v>
+        <v>596</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>114</v>
+        <v>596</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>114</v>
+        <v>596</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>114</v>
+        <v>596</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>114</v>
+        <v>596</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>114</v>
+        <v>596</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>114</v>
+        <v>596</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>114</v>
+        <v>596</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>114</v>
+        <v>596</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I83" s="1" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>9</v>
+        <v>597</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G85" s="1" t="s">
-        <v>9</v>
+        <v>597</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G86" s="1" t="s">
-        <v>9</v>
+        <v>597</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>9</v>
+        <v>597</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>9</v>
+        <v>597</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
-        <v>9</v>
+        <v>597</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>9</v>
+        <v>597</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I91" s="1" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>9</v>
+        <v>597</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1" t="s">
-        <v>9</v>
+        <v>597</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
-        <v>126</v>
+        <v>598</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>126</v>
+        <v>598</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
-        <v>126</v>
+        <v>598</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="2" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>126</v>
+        <v>598</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>126</v>
+        <v>598</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="2" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>78</v>
+        <v>604</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="2" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>51</v>
+        <v>592</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="2" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>51</v>
+        <v>592</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="2" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>51</v>
+        <v>592</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="2" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>51</v>
+        <v>592</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="2" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>85</v>
+        <v>601</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I104" s="13" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="2" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>78</v>
+        <v>604</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="2" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>95</v>
+        <v>602</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="2" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>104</v>
+        <v>603</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="2" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>9</v>
+        <v>597</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="2" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>9</v>
+        <v>597</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>345</v>
+        <v>594</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="2" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>345</v>
+        <v>594</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="2" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>32</v>
+        <v>590</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I112" s="15" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="23.5" customHeight="1">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="23.45" customHeight="1">
       <c r="A113" s="12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>411</v>
+        <v>599</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I113" s="12" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="12" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>411</v>
+        <v>599</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I114" s="12" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="12" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>411</v>
+        <v>599</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="12" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="12"/>
       <c r="D116" s="12" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="1" t="s">
-        <v>61</v>
+        <v>593</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I116" s="12" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="12" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>61</v>
+        <v>593</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I117" s="12" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="12" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="F118" s="20" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>32</v>
+        <v>590</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I118" s="12" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="2" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="2" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>51</v>
+        <v>592</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="2" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>78</v>
+        <v>604</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="13" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>114</v>
+        <v>596</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="13" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>114</v>
+        <v>596</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="2" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>114</v>
+        <v>596</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="2" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>114</v>
+        <v>596</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="7" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>114</v>
+        <v>596</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="7" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="F127" s="8"/>
       <c r="G127" s="1" t="s">
-        <v>61</v>
+        <v>593</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I127" s="17" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="7" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="13" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>61</v>
+        <v>593</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="2" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="E129" s="7"/>
       <c r="G129" s="1" t="s">
-        <v>61</v>
+        <v>593</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="2" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>61</v>
+        <v>593</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I130" s="17" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="2" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>61</v>
+        <v>593</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="9" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>61</v>
+        <v>593</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="10" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>51</v>
+        <v>592</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="18" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>32</v>
+        <v>590</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="2" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>32</v>
+        <v>590</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="13" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="E136" s="13" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="F136" s="13"/>
       <c r="G136" s="13" t="s">
-        <v>85</v>
+        <v>601</v>
       </c>
       <c r="H136" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="2" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>345</v>
+        <v>594</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="2" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>61</v>
+        <v>593</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="3" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>104</v>
+        <v>603</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="1" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="3" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>95</v>
+        <v>602</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="3" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>51</v>
+        <v>592</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="3" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>78</v>
+        <v>604</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="3" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>85</v>
+        <v>601</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="2" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>32</v>
+        <v>590</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I144" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="2" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I145" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="2" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>61</v>
+        <v>593</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I146" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="2" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I147" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="2" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>114</v>
+        <v>596</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I148" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="2" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>85</v>
+        <v>601</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I149" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="2" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>126</v>
+        <v>598</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I151" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>557</v>
-      </c>
       <c r="C152" s="11" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>32</v>
+        <v>590</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="2" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>78</v>
+        <v>604</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="2" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>32</v>
+        <v>590</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="12" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="F155" s="20" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="2" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="D156" s="20" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="2" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="B157" s="21"/>
       <c r="D157" s="20" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>114</v>
+        <v>596</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="2" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="B158" s="21"/>
       <c r="C158" s="20" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>114</v>
+        <v>596</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I158" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="13" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="B159" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="C159" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="F159" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="F159" s="20" t="s">
-        <v>591</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H159" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="13" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="C160" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="D160" s="20" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="F160" s="20" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>114</v>
+        <v>596</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="2" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>32</v>
+        <v>590</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I161" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="2" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="D162" s="20" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>51</v>
+        <v>592</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="2" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="B163" s="21"/>
       <c r="D163" s="20" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>85</v>
+        <v>601</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="2" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="B164" s="21"/>
       <c r="D164" s="20" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>95</v>
+        <v>602</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="2" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="B165" s="21"/>
       <c r="C165" s="20"/>
       <c r="D165" s="20" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>104</v>
+        <v>603</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="2" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="B166" s="21"/>
       <c r="C166" s="20" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="D166" s="20" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>61</v>
+        <v>593</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I166" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="2" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="B167" s="21"/>
       <c r="C167" s="20" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>85</v>
+        <v>601</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I167" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="2" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="B168" s="21"/>
       <c r="C168" s="20" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>95</v>
+        <v>602</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I168" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="2" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="B169" s="21"/>
       <c r="C169" s="20" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>104</v>
+        <v>603</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I169" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
